--- a/users.xlsx
+++ b/users.xlsx
@@ -397,66 +397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>parking_start</v>
-      </c>
-      <c r="B1" t="str">
-        <v>parking_uuids</v>
-      </c>
-      <c r="C1" t="str">
-        <v>parking_end</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>2022-12-02 10:28:53</v>
-      </c>
-      <c r="B2" t="str">
-        <v>ebf67cea-33f0-47cc-8f03-486b4c924c47</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>2022-12-02 10:29:26</v>
-      </c>
-      <c r="B3" t="str">
-        <v>043f704d-2ad6-4234-b033-1c4eaa5fae3c</v>
-      </c>
-      <c r="C3" t="str">
-        <v>2022-12-02 10:47:42</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>2022-12-02 10:29:30</v>
-      </c>
-      <c r="B4" t="str">
-        <v>e9850bbb-b6b4-4d4f-97d8-35ce6ba40624</v>
-      </c>
-      <c r="C4" t="str">
-        <v>2022-12-02 10:47:42</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>2022-11-22 15:19:02</v>
-      </c>
-      <c r="B5" t="str">
-        <v>8965fa43-ccc2-40ee-9aba-b5427792f686</v>
-      </c>
-      <c r="C5" t="str">
-        <v>2022-12-02 10:47:42</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/users.xlsx
+++ b/users.xlsx
@@ -397,13 +397,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>parking_start</v>
+      </c>
+      <c r="B1" t="str">
+        <v>parking_uuids</v>
+      </c>
+      <c r="C1" t="str">
+        <v>parking_end</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>2022-11-22 15:19:02</v>
+      </c>
+      <c r="B2" t="str">
+        <v>8965fa43-ccc2-40ee-9aba-b5427792f2686</v>
+      </c>
+      <c r="C2" t="str">
+        <v>2022-12-12 11:09:37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>2022-11-22 15:19:02</v>
+      </c>
+      <c r="B3" t="str">
+        <v>8965fa43-ccc2-40ee-9aba-b5427792f686</v>
+      </c>
+      <c r="C3" t="str">
+        <v>2022-12-08 14:21:38</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/users.xlsx
+++ b/users.xlsx
@@ -397,47 +397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>parking_start</v>
-      </c>
-      <c r="B1" t="str">
-        <v>parking_uuids</v>
-      </c>
-      <c r="C1" t="str">
-        <v>parking_end</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>2022-11-22 15:19:02</v>
-      </c>
-      <c r="B2" t="str">
-        <v>8965fa43-ccc2-40ee-9aba-b5427792f2686</v>
-      </c>
-      <c r="C2" t="str">
-        <v>2022-12-12 11:09:37</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>2022-11-22 15:19:02</v>
-      </c>
-      <c r="B3" t="str">
-        <v>8965fa43-ccc2-40ee-9aba-b5427792f686</v>
-      </c>
-      <c r="C3" t="str">
-        <v>2022-12-08 14:21:38</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/users.xlsx
+++ b/users.xlsx
@@ -397,13 +397,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>ประจำเดือน</v>
+      </c>
+      <c r="B1" t="str">
+        <v>รายได้ทั้งหมด</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>2022-12</v>
+      </c>
+      <c r="B2">
+        <v>32220</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
   </ignoredErrors>
 </worksheet>
 </file>